--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779028.8655029046</v>
+        <v>859231.5886549387</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240758</v>
+        <v>5739665.974240762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9535414.712172573</v>
+        <v>9535414.71217257</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>252.6341348836039</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.708691331054833</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208645</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249139</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>28.00550033926009</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>154.2348114802438</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.94174219837129</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>66.4005512133147</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.8888291856967</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.01816637160698</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>158.2022700885298</v>
       </c>
       <c r="H10" t="n">
-        <v>76.83439471707496</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>267.1758329068638</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>238.6591887249613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>104.1966291221095</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>145.2481701217147</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.2381797632647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>61.96348919956046</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>72.26185188621305</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>235.9375844494537</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.38006817584838</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.05257541788</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835127</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.7210232472907</v>
       </c>
       <c r="D25" t="n">
-        <v>125.1929118796484</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>28.93382893561908</v>
       </c>
       <c r="U26" t="n">
-        <v>243.5875274224992</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.9187566128688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>225.7508892923963</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>238.8071638495614</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>127.805116557801</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>142.6955872305736</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>350.5945081981695</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>116.5631275042191</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>19.58945082857547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>396.867004107114</v>
+        <v>72.94739929678008</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>248.9676348088417</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>308.9203564757145</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>188.6059442291535</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3913,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>75.32192060851568</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>75.32192060851585</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.686500484041885</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>114.5505532674854</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>242.2389600464047</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.179752390877</v>
+        <v>1822.970833065919</v>
       </c>
       <c r="C2" t="n">
-        <v>825.2172354504648</v>
+        <v>1822.970833065919</v>
       </c>
       <c r="D2" t="n">
-        <v>466.9515368437143</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2555.562872510201</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2301.981811774381</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.91892443081</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.91892443081</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.91892443081</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.779592454998</v>
+        <v>2209.570673130041</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>977.139994893661</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>977.139994893661</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>977.139994893661</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>977.139994893661</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>977.139994893661</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>977.139994893661</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394902</v>
+        <v>977.139994893661</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.139994893661</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1206.928697531324</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>978.9391466333066</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>977.139994893661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1223.1725826085</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C5" t="n">
-        <v>1223.1725826085</v>
+        <v>713.5716291771832</v>
       </c>
       <c r="D5" t="n">
-        <v>1223.1725826085</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E5" t="n">
-        <v>837.3843300102556</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2534.050944219085</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.469883483264</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.406996139694</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.63834086958</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1223.1725826085</v>
+        <v>1469.133986181717</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.1725826085</v>
+        <v>1469.133986181717</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904428</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>825.1371474485136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829029</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886175</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="D8" t="n">
-        <v>690.4032258886175</v>
+        <v>134.093419266596</v>
       </c>
       <c r="E8" t="n">
-        <v>690.4032258886175</v>
+        <v>134.093419266596</v>
       </c>
       <c r="F8" t="n">
-        <v>279.4173210990099</v>
+        <v>134.093419266596</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>134.093419266596</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400157</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868963</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893151</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>869.6648135671841</v>
+        <v>932.6070201144361</v>
       </c>
       <c r="C10" t="n">
-        <v>700.7286306392772</v>
+        <v>763.6708371865292</v>
       </c>
       <c r="D10" t="n">
-        <v>550.6119912269414</v>
+        <v>613.5541977741934</v>
       </c>
       <c r="E10" t="n">
-        <v>402.6988976445483</v>
+        <v>465.6411041918003</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6988976445483</v>
+        <v>465.6411041918003</v>
       </c>
       <c r="G10" t="n">
-        <v>234.7124329528269</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671841</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>869.6648135671841</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X10" t="n">
-        <v>869.6648135671841</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y10" t="n">
-        <v>869.6648135671841</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="D11" t="n">
         <v>1617.939223126803</v>
@@ -5030,61 +5032,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3084.535934008201</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
@@ -5115,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1533772316434</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>563.2171943037365</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>563.2171943037365</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>415.3041007213434</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>415.3041007213434</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088493</v>
@@ -5224,25 +5226,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242374</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242374</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.594421205413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.594421205413</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.8018420618831</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F14" t="n">
         <v>821.1650657389509</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5291,7 +5293,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5321,7 +5323,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5473,13 +5475,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5513,25 +5515,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5558,7 +5560,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>985.2668805437596</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5701,22 +5703,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.361223971664</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V19" t="n">
-        <v>1548.361223971664</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W19" t="n">
-        <v>1548.361223971664</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X19" t="n">
-        <v>1320.371673073647</v>
+        <v>1387.707924517529</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.579093930117</v>
+        <v>1166.915345373999</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032.061124352531</v>
+        <v>2049.196691315587</v>
       </c>
       <c r="C20" t="n">
-        <v>663.0986074121195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>304.832908805369</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923659</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392465</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416653</v>
+        <v>2435.796531379709</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.4128495803448</v>
+        <v>1640.204086189707</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4766666524379</v>
+        <v>1471.2679032618</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3600272401021</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>501.3600272401021</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>354.4700797421917</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>186.7672431169107</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>2814.736339304341</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>2560.051851098454</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.843444452132</v>
+        <v>2270.634681061494</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.853893554115</v>
+        <v>2042.645130163476</v>
       </c>
       <c r="Y22" t="n">
-        <v>1002.061314410584</v>
+        <v>1821.852551019946</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>899.0183448486844</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C25" t="n">
-        <v>899.0183448486844</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746702</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>899.0183448486844</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0183448486844</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3296.379731775211</v>
       </c>
       <c r="U26" t="n">
-        <v>3079.557814111698</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V26" t="n">
-        <v>2748.494926768127</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W26" t="n">
-        <v>2395.726271498012</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1876.06909054194</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>1876.06909054194</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.06909054194</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>1876.06909054194</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916659</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888695</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>2278.535509682808</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>1989.118339645848</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>1876.06909054194</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>1876.06909054194</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.601034732593</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6473,40 +6475,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3097.574620303721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2744.805965033606</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="X29" t="n">
-        <v>2371.340206772526</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y29" t="n">
-        <v>1981.200874796715</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W31" t="n">
-        <v>1638.191681214136</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565138</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624726</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D32" t="n">
-        <v>985.1133520179758</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="E32" t="n">
-        <v>599.3250994197315</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="F32" t="n">
-        <v>599.3250994197315</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>184.2526492647279</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866151</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605071</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.94140762926</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>181.169050396912</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>181.169050396912</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>181.169050396912</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1513.842048484845</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>1513.842048484845</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1605.601998493311</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C35" t="n">
-        <v>1236.639481552899</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D35" t="n">
-        <v>878.3737829461486</v>
+        <v>936.9705155339545</v>
       </c>
       <c r="E35" t="n">
-        <v>878.3737829461486</v>
+        <v>551.1822629357102</v>
       </c>
       <c r="F35" t="n">
-        <v>467.387878156541</v>
+        <v>140.1963581461027</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533244</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y35" t="n">
-        <v>1992.201838557432</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.464090846021</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1026.564081015894</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1026.564081015894</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>615.5781762262866</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.744041450754</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y38" t="n">
-        <v>2424.744041450754</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.606831754061</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>764.341133147311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>378.5528805490667</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7411,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7442,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265601</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995486</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734407</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.1535645674204</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2173816395135</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>605.1007422271778</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>457.1876486447846</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>310.2977011468743</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>142.5948645215932</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7609,10 +7611,10 @@
         <v>1326.59460854119</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.038871968309</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>869.0763550278978</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>869.0763550278978</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>483.2881024296535</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>483.2881024296535</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>68.21565227464998</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,19 +7648,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008243</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.638712032431</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7730,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.7237329438971</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C46" t="n">
-        <v>775.7875500159902</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D46" t="n">
-        <v>625.6709106036544</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.191681214136</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W46" t="n">
-        <v>1393.505862985445</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="X46" t="n">
-        <v>1165.516312087427</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.7237329438971</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>35.91627445172452</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>102.0489067370791</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -22598,22 +22600,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>199.9494936491789</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181413</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>216.8034931298457</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>178.6526846409737</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>215.4962891982252</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.67373081984107</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>80.85095794181414</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23005,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6588735872573</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>219.0003861907984</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23191,10 +23193,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.104329956274427</v>
       </c>
       <c r="H10" t="n">
-        <v>70.41711443805389</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>87.50720871381918</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>89.09306974517361</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>61.82917913691877</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>265.6735555317388</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.59380041867263</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>105.2833318990674</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>293.0110398847945</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>145.9927856228081</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>142.235404842364</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>25.70243949644079</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.5257978513371</v>
       </c>
       <c r="D25" t="n">
-        <v>23.42256113856399</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24494,10 +24496,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>174.984141204001</v>
       </c>
       <c r="U26" t="n">
-        <v>7.407644536402813</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>113.7908987761684</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>102.0013691777386</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>110.4338048678516</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>16.94989835651978</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.0140681584636</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>56.28153754354196</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>178.0446368831014</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>52.51544363394692</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.1202045604617</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14.05472154633941</v>
+        <v>337.9743263566734</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>161.9540908446118</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>97.95568926599697</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25682,16 +25684,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>62.38922772974848</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>69.4330943058051</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>150.3877347805213</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>292.9212639032786</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.28403829018626</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>94.04427615813256</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>766488.4087227279</v>
+        <v>766488.4087227278</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766488.4087227279</v>
+        <v>766488.4087227277</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843982.1079889288</v>
+        <v>843982.1079889282</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843982.1079889284</v>
+        <v>843982.1079889286</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843982.1079889284</v>
+        <v>843982.1079889287</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843982.1079889286</v>
+        <v>843982.1079889287</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843982.1079889287</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843982.1079889286</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843982.1079889287</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843982.1079889286</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>843982.1079889284</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>843982.1079889287</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="15">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321270.2120190237</v>
+      </c>
+      <c r="D2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190238</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321270.2120190241</v>
-      </c>
       <c r="E2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="G2" t="n">
-        <v>358046.9539194664</v>
-      </c>
       <c r="H2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="K2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="I2" t="n">
-        <v>358046.9539194668</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="M2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="L2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
@@ -26353,7 +26355,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171907</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17379.72927547097</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="C4" t="n">
         <v>17379.72927547096</v>
       </c>
       <c r="D4" t="n">
-        <v>17379.72927547094</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079142</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
         <v>9160.459137079168</v>
@@ -26473,10 +26475,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26491,19 +26493,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-903799.0732722115</v>
+        <v>-903799.0732722114</v>
       </c>
       <c r="C6" t="n">
         <v>210952.7103037081</v>
@@ -26528,37 +26530,37 @@
         <v>210952.7103037081</v>
       </c>
       <c r="E6" t="n">
-        <v>92507.17440380357</v>
+        <v>92507.17440380344</v>
       </c>
       <c r="F6" t="n">
-        <v>274580.1542209946</v>
+        <v>274580.154220994</v>
       </c>
       <c r="G6" t="n">
+        <v>274580.1542209942</v>
+      </c>
+      <c r="H6" t="n">
+        <v>274580.1542209942</v>
+      </c>
+      <c r="I6" t="n">
+        <v>274580.1542209942</v>
+      </c>
+      <c r="J6" t="n">
+        <v>106974.9764110116</v>
+      </c>
+      <c r="K6" t="n">
         <v>274580.154220994</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>274580.154220994</v>
+      </c>
+      <c r="M6" t="n">
+        <v>227027.8884275793</v>
+      </c>
+      <c r="N6" t="n">
         <v>274580.1542209941</v>
       </c>
-      <c r="I6" t="n">
-        <v>274580.1542209943</v>
-      </c>
-      <c r="J6" t="n">
-        <v>106974.9764110117</v>
-      </c>
-      <c r="K6" t="n">
-        <v>274580.1542209942</v>
-      </c>
-      <c r="L6" t="n">
-        <v>274580.1542209942</v>
-      </c>
-      <c r="M6" t="n">
-        <v>227027.8884275794</v>
-      </c>
-      <c r="N6" t="n">
-        <v>274580.1542209942</v>
-      </c>
       <c r="O6" t="n">
-        <v>274580.1542209942</v>
+        <v>274580.1542209941</v>
       </c>
       <c r="P6" t="n">
         <v>274580.1542209942</v>
@@ -26738,13 +26740,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,25 +26807,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32324,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,10 +33508,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34144,7 +34146,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324475</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>152.3969967825791</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977092</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35972,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
